--- a/data_backup/assets_rows_04_10.xlsx
+++ b/data_backup/assets_rows_04_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunsuhyuck\Documents\next-content\test\data_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF295426-E349-4CF0-B518-FFB3B844E281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567A277-C74B-4620-88C6-72DA7C9A2E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{828BA50D-545C-44CA-8E3D-76BDBDF28BE8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -55,238 +55,421 @@
     <t>state</t>
   </si>
   <si>
-    <t>18cdbb4d-55fa-473d-a8c3-c24e4dde198f</t>
-  </si>
-  <si>
-    <t>모니터</t>
-  </si>
-  <si>
-    <t>2104-M-001</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d77</t>
-  </si>
-  <si>
-    <t>삼성 UHD모니터 U32R590 32인치</t>
-  </si>
-  <si>
-    <t>2108-M-002</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d78</t>
-  </si>
-  <si>
-    <t>ULTRON 3278 QHD New 일반 32형/WQHD/IPS</t>
-  </si>
-  <si>
-    <t>2108-M-003</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d79</t>
-  </si>
-  <si>
-    <t>LED 모니터</t>
-  </si>
-  <si>
-    <t>2109-M-004</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d80</t>
-  </si>
-  <si>
-    <t>LG 27MN430HW 27형모니터 IPS패널 75HZ 화이트</t>
-  </si>
-  <si>
-    <t>2109-M-005</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d81</t>
-  </si>
-  <si>
-    <t>2109-M-006</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d82</t>
-  </si>
-  <si>
-    <t>2109-M-007</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d83</t>
-  </si>
-  <si>
-    <t>2109-M-008</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d84</t>
-  </si>
-  <si>
-    <t>2109-M-009</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d85</t>
-  </si>
-  <si>
-    <t>삼성 S6 S34A650U 100</t>
-  </si>
-  <si>
-    <t>2110-M-010</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d86</t>
-  </si>
-  <si>
-    <t>LG전자 86.72cm WQHD HDR 10 모니터, 34WN780</t>
-  </si>
-  <si>
-    <t>2204-M-012</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d87</t>
-  </si>
-  <si>
-    <t>LG전자 32인치모니터 360모니터 32QP880</t>
-  </si>
-  <si>
-    <t>2204-M-013</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d88</t>
-  </si>
-  <si>
-    <t>LG 27UL550 UHD HDR 피벗 높이조절 27인치 모니터</t>
-  </si>
-  <si>
-    <t>2208-M-014</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d89</t>
-  </si>
-  <si>
-    <t>필립스 271E1 프리싱크75</t>
-  </si>
-  <si>
-    <t>2208-M-015</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d90</t>
-  </si>
-  <si>
-    <t>필립스 242S IPS 피벗</t>
-  </si>
-  <si>
-    <t>2208-M-016</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d91</t>
-  </si>
-  <si>
-    <t>알파스캔 AOC i1601</t>
-  </si>
-  <si>
-    <t>2208-M-017</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d92</t>
-  </si>
-  <si>
-    <t>주연테크 V32Q-75 IPS 아이케어 [무결점]</t>
-  </si>
-  <si>
-    <t>2212-M-018</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d93</t>
-  </si>
-  <si>
-    <t>삼성전자 F27T450</t>
-  </si>
-  <si>
-    <t>2212-M-019</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d94</t>
-  </si>
-  <si>
-    <t>한성컴퓨터 ULTRON 3278 QHD New 모니터(32인치, QHD, 75Hz)</t>
-  </si>
-  <si>
-    <t>2212-M-020</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d95</t>
-  </si>
-  <si>
-    <t>2212-M-021</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d96</t>
-  </si>
-  <si>
-    <t>2306-M-022</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d97</t>
-  </si>
-  <si>
-    <t>2109-M-023</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d98</t>
-  </si>
-  <si>
-    <t>한성컴퓨터 80cm QHD 평면 144 게이밍 모니터, TFG32Q14F (31인치)</t>
-  </si>
-  <si>
-    <t>2401-M-024</t>
-  </si>
-  <si>
-    <t>44ae6d5e-532f-4315-9ed0-99e3dcc93d99</t>
-  </si>
-  <si>
-    <t>한성컴퓨터 TFG32Q14F</t>
-  </si>
-  <si>
-    <t>2411-M-025</t>
-  </si>
-  <si>
-    <t>한성컴퓨터 ULTRON 3278 QHD NEW 무결점</t>
-  </si>
-  <si>
-    <t>2411-M-026</t>
-  </si>
-  <si>
-    <t>2411-M-027</t>
-  </si>
-  <si>
-    <t>2411-M-028</t>
-  </si>
-  <si>
-    <t>2411-M-029</t>
-  </si>
-  <si>
-    <t>2411-M-030</t>
-  </si>
-  <si>
-    <t>2411-M-031</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93011</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93012</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93013</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93014</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93015</t>
-  </si>
-  <si>
-    <t>55ae6d5e-532f-4315-9ed0-99e3dcc93016</t>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa06</t>
+  </si>
+  <si>
+    <t>NEW T500HLDA 메쉬의자(TNA500HLDA)다크그레이</t>
+  </si>
+  <si>
+    <t>NEW T500HLDA 메쉬의자(TNA500HLDA)다크그레이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2204-F-001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2204-F-002</t>
+  </si>
+  <si>
+    <t>2204-F-003</t>
+  </si>
+  <si>
+    <t>2204-F-004</t>
+  </si>
+  <si>
+    <t>2204-F-005</t>
+  </si>
+  <si>
+    <t>2204-F-006</t>
+  </si>
+  <si>
+    <t>2204-F-007</t>
+  </si>
+  <si>
+    <t>2204-F-008</t>
+  </si>
+  <si>
+    <t>2204-F-009</t>
+  </si>
+  <si>
+    <t>2204-F-010</t>
+  </si>
+  <si>
+    <t>2204-F-011</t>
+  </si>
+  <si>
+    <t>2204-F-012</t>
+  </si>
+  <si>
+    <t>2204-F-013</t>
+  </si>
+  <si>
+    <t>2204-F-014</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa07</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa08</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa09</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa10</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa11</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa12</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa13</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa14</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa15</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa16</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa17</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa18</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa19</t>
+  </si>
+  <si>
+    <t>2023년형 NEW T500HLDA 메쉬의자(TNA500HLDA)다크그레이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa20</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa21</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa22</t>
+  </si>
+  <si>
+    <t>2204-F-019</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2204-F-020</t>
+  </si>
+  <si>
+    <t>2204-F-021</t>
+  </si>
+  <si>
+    <t>2204-F-022</t>
+  </si>
+  <si>
+    <t>2204-F-023</t>
+  </si>
+  <si>
+    <t>2204-F-024</t>
+  </si>
+  <si>
+    <t>2204-F-025</t>
+  </si>
+  <si>
+    <t>2204-F-026</t>
+  </si>
+  <si>
+    <t>2204-F-027</t>
+  </si>
+  <si>
+    <t>2204-F-028</t>
+  </si>
+  <si>
+    <t>2204-F-029</t>
+  </si>
+  <si>
+    <t>2204-F-030</t>
+  </si>
+  <si>
+    <t>2204-F-031</t>
+  </si>
+  <si>
+    <t>2204-F-032</t>
+  </si>
+  <si>
+    <t>2204-F-033</t>
+  </si>
+  <si>
+    <t>2204-F-034</t>
+  </si>
+  <si>
+    <t>2204-F-035</t>
+  </si>
+  <si>
+    <t>2204-F-036</t>
+  </si>
+  <si>
+    <t>2204-F-037</t>
+  </si>
+  <si>
+    <t>2204-F-038</t>
+  </si>
+  <si>
+    <t>2204-F-039</t>
+  </si>
+  <si>
+    <t>2204-F-040</t>
+  </si>
+  <si>
+    <t>2204-F-041</t>
+  </si>
+  <si>
+    <t>2204-F-042</t>
+  </si>
+  <si>
+    <t>2204-F-043</t>
+  </si>
+  <si>
+    <t>2204-F-044</t>
+  </si>
+  <si>
+    <t>2204-F-045</t>
+  </si>
+  <si>
+    <t>데스커 W1400*D700 컴퓨터데스크&amp;모니터받침대</t>
+  </si>
+  <si>
+    <t>데스커 W1400*D700 컴퓨터데스크&amp;모니터받침대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa23</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa24</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa25</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa26</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa27</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa28</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa29</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa30</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa31</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa32</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa33</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa34</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa35</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa36</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa37</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa38</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa39</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa40</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa41</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa42</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa43</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa44</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa45</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa46</t>
+  </si>
+  <si>
+    <t>2204-F-089</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시디즈 T50 HLDA 풀옵션 (VTNF500HLDA)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2204-F-090</t>
+  </si>
+  <si>
+    <t>2204-F-091</t>
+  </si>
+  <si>
+    <t>2204-F-092</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa47</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa48</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa49</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa50</t>
+  </si>
+  <si>
+    <t>2204-F-093</t>
+  </si>
+  <si>
+    <t>2204-F-094</t>
+  </si>
+  <si>
+    <t>2204-F-095</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa51</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa52</t>
+  </si>
+  <si>
+    <t>ab9f9cd2-ddff-48d4-90e9-60aa1deaaa53</t>
+  </si>
+  <si>
+    <t>구매 기록 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c632a22-2a5f-4ecd-bc73-049b97bcf007</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>72ce75b9-6fa8-4a1f-b630-0362445f42b4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d219f975-2f4e-48fe-bb55-ff1768dbc6c7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>73742710-e64e-4308-9d77-3906702a35e7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e8fdd29-be6d-431d-b764-5b31d3ab084c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba26</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba28</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba29</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba36</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba37</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba38</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba41</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba42</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba43</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba44</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba46</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba47</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba54</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba55</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba56</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba61</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f782b6e8-40d6-4d03-bae2-e10de09bba62</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,11 +1062,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,17 +1447,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3ADFC0-FBA1-4BC0-85EF-089DECD4A910}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.9140625" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="51.4140625" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -1314,13 +1507,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>317571</v>
       </c>
       <c r="G2" s="1">
-        <v>44302</v>
+        <v>44656</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1328,16 +1527,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="E3" s="2">
+        <v>317571</v>
       </c>
       <c r="G3" s="1">
-        <v>44432</v>
+        <v>44656</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -1345,16 +1550,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>317571</v>
       </c>
       <c r="G4" s="1">
-        <v>44435</v>
+        <v>44656</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -1362,16 +1573,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>317571</v>
       </c>
       <c r="G5" s="1">
-        <v>44449</v>
+        <v>44656</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -1379,16 +1596,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>317571</v>
       </c>
       <c r="G6" s="1">
-        <v>44461</v>
+        <v>44656</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -1396,16 +1619,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>317571</v>
       </c>
       <c r="G7" s="1">
-        <v>44461</v>
+        <v>44656</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -1413,16 +1642,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>317571</v>
       </c>
       <c r="G8" s="1">
-        <v>44461</v>
+        <v>44656</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1430,16 +1665,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>317571</v>
       </c>
       <c r="G9" s="1">
-        <v>44461</v>
+        <v>44656</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1447,16 +1688,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>317571</v>
       </c>
       <c r="G10" s="1">
-        <v>44461</v>
+        <v>44656</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1464,16 +1711,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>317571</v>
       </c>
       <c r="G11" s="1">
-        <v>44491</v>
+        <v>44656</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1484,13 +1737,19 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>317571</v>
       </c>
       <c r="G12" s="1">
-        <v>44652</v>
+        <v>44656</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1498,16 +1757,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>317571</v>
       </c>
       <c r="G13" s="1">
-        <v>44678</v>
+        <v>44656</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1515,16 +1780,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>317571</v>
       </c>
       <c r="G14" s="1">
-        <v>44782</v>
+        <v>44656</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1532,16 +1803,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
+        <v>317571</v>
       </c>
       <c r="G15" s="1">
-        <v>44798</v>
+        <v>44656</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1549,16 +1826,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>333333</v>
       </c>
       <c r="G16" s="1">
-        <v>44798</v>
+        <v>44905</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1566,16 +1849,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="E17" s="2">
+        <v>333333</v>
       </c>
       <c r="G17" s="1">
-        <v>44798</v>
+        <v>44905</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1583,16 +1872,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>333333</v>
       </c>
       <c r="G18" s="1">
-        <v>44903</v>
+        <v>44905</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1600,16 +1895,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="E19" s="2">
+        <v>183230</v>
       </c>
       <c r="G19" s="1">
-        <v>44903</v>
+        <v>44966</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1617,16 +1918,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="E20" s="2">
+        <v>183230</v>
       </c>
       <c r="G20" s="1">
-        <v>44904</v>
+        <v>44966</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1634,16 +1941,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>183230</v>
       </c>
       <c r="G21" s="1">
-        <v>44904</v>
+        <v>44966</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1651,16 +1964,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="2">
+        <v>183230</v>
       </c>
       <c r="G22" s="1">
-        <v>45086</v>
+        <v>44966</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1668,16 +1987,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="E23" s="2">
+        <v>183230</v>
       </c>
       <c r="G23" s="1">
-        <v>44461</v>
+        <v>44966</v>
+      </c>
+      <c r="I23" t="s">
+        <v>119</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1685,16 +2010,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>183230</v>
       </c>
       <c r="G24" s="1">
-        <v>45320</v>
+        <v>44966</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1702,16 +2033,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="E25" s="2">
+        <v>183230</v>
       </c>
       <c r="G25" s="1">
-        <v>45609</v>
+        <v>44966</v>
+      </c>
+      <c r="I25" t="s">
+        <v>121</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1719,16 +2056,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="2">
+        <v>183230</v>
       </c>
       <c r="G26" s="1">
-        <v>45708</v>
+        <v>44966</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1736,16 +2079,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="E27" s="2">
+        <v>183230</v>
       </c>
       <c r="G27" s="1">
-        <v>45708</v>
+        <v>44966</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1753,16 +2102,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="E28" s="2">
+        <v>183230</v>
       </c>
       <c r="G28" s="1">
-        <v>45708</v>
+        <v>44966</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1770,16 +2125,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="E29" s="2">
+        <v>183230</v>
       </c>
       <c r="G29" s="1">
-        <v>45708</v>
+        <v>44966</v>
+      </c>
+      <c r="I29" t="s">
+        <v>125</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1787,16 +2148,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="E30" s="2">
+        <v>183230</v>
       </c>
       <c r="G30" s="1">
-        <v>45708</v>
+        <v>44966</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1804,18 +2171,432 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45708</v>
-      </c>
-      <c r="K31" t="b">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2">
+        <v>183230</v>
+      </c>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2">
+        <v>183230</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44966</v>
+      </c>
+      <c r="I42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="2">
+        <v>349000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45713</v>
+      </c>
+      <c r="I43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
+        <v>349000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45713</v>
+      </c>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2">
+        <v>349000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45713</v>
+      </c>
+      <c r="I45" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2">
+        <v>349000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45713</v>
+      </c>
+      <c r="I46" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>137</v>
+      </c>
+      <c r="K49" t="b">
         <v>1</v>
       </c>
     </row>
